--- a/Rules.xlsx
+++ b/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rsrko\Documents\UiPath\Assignment 4 Email Categorisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97045554-CF76-4ED3-B7EE-4AA3A689A75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA4B423-979C-4C3B-BCF1-D08E4FDF8DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="228" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Important</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>with love</t>
+  </si>
+  <si>
+    <t>Folder Name</t>
+  </si>
+  <si>
+    <t>Keyword</t>
   </si>
 </sst>
 </file>
@@ -354,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -367,17 +373,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Rules.xlsx
+++ b/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rsrko\Documents\UiPath\Assignment 4 Email Categorisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA4B423-979C-4C3B-BCF1-D08E4FDF8DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B06FC6C-B4A5-4B82-A344-6D68E4E325E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="82">
   <si>
     <t>Important</t>
   </si>
@@ -43,16 +43,251 @@
   </si>
   <si>
     <t>Keyword</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Red Category</t>
+  </si>
+  <si>
+    <t>Blue Category</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>Yellow Category</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>Customer Support</t>
+  </si>
+  <si>
+    <t>Green Category</t>
+  </si>
+  <si>
+    <t>IT Support</t>
+  </si>
+  <si>
+    <t>Orange Category</t>
+  </si>
+  <si>
+    <t>Internal Communication</t>
+  </si>
+  <si>
+    <t>Purple Category</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>subscribe</t>
+  </si>
+  <si>
+    <t>newsletter</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>immediately</t>
+  </si>
+  <si>
+    <t>urgently</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>action required</t>
+  </si>
+  <si>
+    <t>attention</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>escalation</t>
+  </si>
+  <si>
+    <t>approval required</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>catch-up</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <t>dad</t>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>miss you</t>
+  </si>
+  <si>
+    <t>thinking of you</t>
+  </si>
+  <si>
+    <t>love you</t>
+  </si>
+  <si>
+    <t>travel plans</t>
+  </si>
+  <si>
+    <t>here for you</t>
+  </si>
+  <si>
+    <t>you are strong</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>adopted a pet</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>limited-time offer</t>
+  </si>
+  <si>
+    <t>buy one get one free</t>
+  </si>
+  <si>
+    <t>promo code</t>
+  </si>
+  <si>
+    <t>flash sale</t>
+  </si>
+  <si>
+    <t>today only</t>
+  </si>
+  <si>
+    <t>top selling</t>
+  </si>
+  <si>
+    <t>picks of today</t>
+  </si>
+  <si>
+    <t>new arrival</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>enquiry</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>product defect</t>
+  </si>
+  <si>
+    <t>defect</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>returns</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>announcement</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>culture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,8 +313,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -371,28 +607,752 @@
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Rules.xlsx
+++ b/Rules.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rsrko\Documents\UiPath\Assignment 4 Email Categorisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zohra magho\Documents\UiPath\Assignment4RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B06FC6C-B4A5-4B82-A344-6D68E4E325E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26923511-4D99-43D7-AEE4-E1417A6C5726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -598,16 +599,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -618,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -629,7 +631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -640,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -651,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -662,7 +664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -673,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -684,7 +686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -695,7 +697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -706,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -717,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -728,7 +730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -739,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -750,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -761,7 +763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -772,7 +774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -783,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -794,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -805,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -816,7 +818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -827,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -838,7 +840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -849,7 +851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -860,7 +862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -871,7 +873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -882,7 +884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -893,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -904,7 +906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -915,7 +917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -926,7 +928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -937,7 +939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -948,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -959,7 +961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -970,7 +972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -981,7 +983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -992,7 +994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1014,7 +1016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1047,7 +1049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1069,7 +1071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1091,7 +1093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1102,7 +1104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1113,7 +1115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -1146,7 +1148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
@@ -1157,7 +1159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +1192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -1212,7 +1214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
@@ -1234,7 +1236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -1267,7 +1269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -1278,7 +1280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -1344,7 +1346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1358,4 +1360,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F38DE3-6960-49B4-9248-D410209620D6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>